--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_storagemod.xlsx
@@ -14,246 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>91.2549777187826</t>
-  </si>
-  <si>
-    <t>92.86372902247085</t>
-  </si>
-  <si>
-    <t>94.4724803261591</t>
-  </si>
-  <si>
-    <t>96.08123162984735</t>
-  </si>
-  <si>
-    <t>97.68998293353562</t>
-  </si>
-  <si>
-    <t>99.3109217471003</t>
-  </si>
-  <si>
-    <t>100.52723523276762</t>
-  </si>
-  <si>
-    <t>101.7849862520148</t>
-  </si>
-  <si>
-    <t>103.02811225941026</t>
-  </si>
-  <si>
-    <t>103.95784515569764</t>
-  </si>
-  <si>
-    <t>104.95861382383617</t>
-  </si>
-  <si>
-    <t>106.39186498530388</t>
-  </si>
-  <si>
-    <t>107.70811605195792</t>
-  </si>
-  <si>
-    <t>108.87811700009482</t>
-  </si>
-  <si>
-    <t>110.2674931260074</t>
-  </si>
-  <si>
-    <t>111.87624442969566</t>
-  </si>
-  <si>
-    <t>113.48499573338391</t>
-  </si>
-  <si>
-    <t>115.10837204892388</t>
-  </si>
-  <si>
-    <t>116.70249834076041</t>
-  </si>
-  <si>
-    <t>118.31124964444867</t>
-  </si>
-  <si>
-    <t>119.92000094813693</t>
-  </si>
-  <si>
-    <t>121.23625201479095</t>
-  </si>
-  <si>
-    <t>122.91812837773776</t>
-  </si>
-  <si>
-    <t>125.03875509623592</t>
-  </si>
-  <si>
-    <t>126.63288138807245</t>
-  </si>
-  <si>
-    <t>128.25625770361242</t>
-  </si>
-  <si>
-    <t>129.86500900730067</t>
-  </si>
-  <si>
-    <t>131.47376031098892</t>
-  </si>
-  <si>
-    <t>133.08251161467717</t>
-  </si>
-  <si>
-    <t>134.69126291836542</t>
-  </si>
-  <si>
-    <t>136.30001422205368</t>
-  </si>
-  <si>
-    <t>137.90876552574193</t>
-  </si>
-  <si>
-    <t>139.51751682943018</t>
-  </si>
-  <si>
-    <t>141.06126808044417</t>
-  </si>
-  <si>
-    <t>142.73501943680668</t>
-  </si>
-  <si>
-    <t>144.34377074049496</t>
-  </si>
-  <si>
-    <t>145.95252204418318</t>
-  </si>
-  <si>
-    <t>147.56127334787146</t>
-  </si>
-  <si>
-    <t>149.1700246515597</t>
-  </si>
-  <si>
-    <t>13010663.328291258</t>
-  </si>
-  <si>
-    <t>12670123.449256752</t>
-  </si>
-  <si>
-    <t>12215014.138784193</t>
-  </si>
-  <si>
-    <t>11845939.230729666</t>
-  </si>
-  <si>
-    <t>11297883.674597388</t>
-  </si>
-  <si>
-    <t>9993778.259527998</t>
-  </si>
-  <si>
-    <t>8193332.423518983</t>
-  </si>
-  <si>
-    <t>7154344.007171572</t>
-  </si>
-  <si>
-    <t>5240456.475591601</t>
-  </si>
-  <si>
-    <t>3728189.3887466327</t>
-  </si>
-  <si>
-    <t>2748202.901209086</t>
-  </si>
-  <si>
-    <t>1876090.4989671586</t>
-  </si>
-  <si>
-    <t>1331396.8418973424</t>
-  </si>
-  <si>
-    <t>1023763.4831344495</t>
-  </si>
-  <si>
-    <t>731336.5532332528</t>
-  </si>
-  <si>
-    <t>584724.2684808595</t>
-  </si>
-  <si>
-    <t>496424.3715393609</t>
-  </si>
-  <si>
-    <t>423126.44485945307</t>
-  </si>
-  <si>
-    <t>367014.04257832945</t>
-  </si>
-  <si>
-    <t>313688.40812976245</t>
-  </si>
-  <si>
-    <t>287684.60484514176</t>
-  </si>
-  <si>
-    <t>265487.2045367132</t>
-  </si>
-  <si>
-    <t>246165.16037885772</t>
-  </si>
-  <si>
-    <t>221819.7692507765</t>
-  </si>
-  <si>
-    <t>197292.6969627607</t>
-  </si>
-  <si>
-    <t>189899.4680643902</t>
-  </si>
-  <si>
-    <t>178597.26380365156</t>
-  </si>
-  <si>
-    <t>164891.01991895435</t>
-  </si>
-  <si>
-    <t>153499.35887500658</t>
-  </si>
-  <si>
-    <t>150332.45747269643</t>
-  </si>
-  <si>
-    <t>141691.35578514184</t>
-  </si>
-  <si>
-    <t>129792.3295984334</t>
-  </si>
-  <si>
-    <t>123728.34211063558</t>
-  </si>
-  <si>
-    <t>113507.78090095535</t>
-  </si>
-  <si>
-    <t>102648.11292049856</t>
-  </si>
-  <si>
-    <t>102124.56604831801</t>
-  </si>
-  <si>
-    <t>94845.08415135593</t>
-  </si>
-  <si>
-    <t>91726.44593265708</t>
-  </si>
-  <si>
-    <t>86403.0206377547</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -626,315 +392,315 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
+      <c r="A2">
+        <v>91.2549777187826</v>
+      </c>
+      <c r="B2">
+        <v>13010663.32829126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
+      <c r="A3">
+        <v>92.86372902247085</v>
+      </c>
+      <c r="B3">
+        <v>12670123.44925675</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="A4">
+        <v>94.4724803261591</v>
+      </c>
+      <c r="B4">
+        <v>12215014.13878419</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
+      <c r="A5">
+        <v>96.08123162984735</v>
+      </c>
+      <c r="B5">
+        <v>11845939.23072967</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+      <c r="A6">
+        <v>97.68998293353562</v>
+      </c>
+      <c r="B6">
+        <v>11297883.67459739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
+      <c r="A7">
+        <v>99.31092174710029</v>
+      </c>
+      <c r="B7">
+        <v>9993778.259527998</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="A8">
+        <v>100.5272352327676</v>
+      </c>
+      <c r="B8">
+        <v>8193332.423518983</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+      <c r="A9">
+        <v>101.7849862520148</v>
+      </c>
+      <c r="B9">
+        <v>7154344.007171572</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="A10">
+        <v>103.0281122594103</v>
+      </c>
+      <c r="B10">
+        <v>5240456.475591601</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+      <c r="A11">
+        <v>103.9578451556976</v>
+      </c>
+      <c r="B11">
+        <v>3728189.388746633</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
+      <c r="A12">
+        <v>104.9586138238362</v>
+      </c>
+      <c r="B12">
+        <v>2748202.901209086</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
+      <c r="A13">
+        <v>106.3918649853039</v>
+      </c>
+      <c r="B13">
+        <v>1876090.498967159</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+      <c r="A14">
+        <v>107.7081160519579</v>
+      </c>
+      <c r="B14">
+        <v>1331396.841897342</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="A15">
+        <v>108.8781170000948</v>
+      </c>
+      <c r="B15">
+        <v>1023763.483134449</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+      <c r="A16">
+        <v>110.2674931260074</v>
+      </c>
+      <c r="B16">
+        <v>731336.5532332528</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="A17">
+        <v>111.8762444296957</v>
+      </c>
+      <c r="B17">
+        <v>584724.2684808595</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
+      <c r="A18">
+        <v>113.4849957333839</v>
+      </c>
+      <c r="B18">
+        <v>496424.3715393609</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+      <c r="A19">
+        <v>115.1083720489239</v>
+      </c>
+      <c r="B19">
+        <v>423126.4448594531</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+      <c r="A20">
+        <v>116.7024983407604</v>
+      </c>
+      <c r="B20">
+        <v>367014.0425783294</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
+      <c r="A21">
+        <v>118.3112496444487</v>
+      </c>
+      <c r="B21">
+        <v>313688.4081297625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
+      <c r="A22">
+        <v>119.9200009481369</v>
+      </c>
+      <c r="B22">
+        <v>287684.6048451418</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
+      <c r="A23">
+        <v>121.2362520147909</v>
+      </c>
+      <c r="B23">
+        <v>265487.2045367132</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
+      <c r="A24">
+        <v>122.9181283777378</v>
+      </c>
+      <c r="B24">
+        <v>246165.1603788577</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
+      <c r="A25">
+        <v>125.0387550962359</v>
+      </c>
+      <c r="B25">
+        <v>221819.7692507765</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
+      <c r="A26">
+        <v>126.6328813880724</v>
+      </c>
+      <c r="B26">
+        <v>197292.6969627607</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="A27">
+        <v>128.2562577036124</v>
+      </c>
+      <c r="B27">
+        <v>189899.4680643902</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
+      <c r="A28">
+        <v>129.8650090073007</v>
+      </c>
+      <c r="B28">
+        <v>178597.2638036516</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
+      <c r="A29">
+        <v>131.4737603109889</v>
+      </c>
+      <c r="B29">
+        <v>164891.0199189543</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
+      <c r="A30">
+        <v>133.0825116146772</v>
+      </c>
+      <c r="B30">
+        <v>153499.3588750066</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
+      <c r="A31">
+        <v>134.6912629183654</v>
+      </c>
+      <c r="B31">
+        <v>150332.4574726964</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
+      <c r="A32">
+        <v>136.3000142220537</v>
+      </c>
+      <c r="B32">
+        <v>141691.3557851418</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
+      <c r="A33">
+        <v>137.9087655257419</v>
+      </c>
+      <c r="B33">
+        <v>129792.3295984334</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
+      <c r="A34">
+        <v>139.5175168294302</v>
+      </c>
+      <c r="B34">
+        <v>123728.3421106356</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
+      <c r="A35">
+        <v>141.0612680804442</v>
+      </c>
+      <c r="B35">
+        <v>113507.7809009553</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
+      <c r="A36">
+        <v>142.7350194368067</v>
+      </c>
+      <c r="B36">
+        <v>102648.1129204986</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
+      <c r="A37">
+        <v>144.343770740495</v>
+      </c>
+      <c r="B37">
+        <v>102124.566048318</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
+      <c r="A38">
+        <v>145.9525220441832</v>
+      </c>
+      <c r="B38">
+        <v>94845.08415135593</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
+      <c r="A39">
+        <v>147.5612733478715</v>
+      </c>
+      <c r="B39">
+        <v>91726.44593265708</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
+      <c r="A40">
+        <v>149.1700246515597</v>
+      </c>
+      <c r="B40">
+        <v>86403.0206377547</v>
       </c>
     </row>
   </sheetData>
